--- a/src/test/resources/datadriven/consultasVehicularYSOAT/Poliza_vehicular_data.xlsx
+++ b/src/test/resources/datadriven/consultasVehicularYSOAT/Poliza_vehicular_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/consultasVehicularYSOAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/Documents/GitHub/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/consultasVehicularYSOAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703135F-1B51-4741-8B0C-D78F5DACF0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDA07F-213B-D34B-BB43-CAD292FC7FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="1" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsultaNumeroDePolizaVehiSoat" sheetId="1" r:id="rId1"/>
@@ -71,15 +71,6 @@
     <t>vigencia</t>
   </si>
   <si>
-    <t>10020310</t>
-  </si>
-  <si>
-    <t>En trámite</t>
-  </si>
-  <si>
-    <t>06/12/2024</t>
-  </si>
-  <si>
     <t>41007984</t>
   </si>
   <si>
@@ -99,6 +90,15 @@
   </si>
   <si>
     <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>93120365</t>
+  </si>
+  <si>
+    <t>SRR-637</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5459A836-902A-7A4C-8026-7FA2D1E81FDD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -927,16 +929,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -981,16 +983,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -1008,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6FD293-FB4E-F348-9EA0-6FED7FD8A15B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1035,16 +1037,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
